--- a/excel/por manual/local/argentina3.xlsx
+++ b/excel/por manual/local/argentina3.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>No se ha podido encontrar dirección IP</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>HOST</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20648,7 +20648,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22042,7 +22042,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -24256,7 +24256,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -24338,7 +24338,7 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24912,7 +24912,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26224,7 +26224,7 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>HOST</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27331,7 +27331,7 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -27413,7 +27413,7 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>Dominio suspendido hasta el 24/06</t>
         </is>
       </c>
     </row>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -28274,7 +28274,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -29463,7 +29463,7 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29914,7 +29914,7 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30816,7 +30816,7 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30898,7 +30898,7 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30939,7 +30939,7 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30980,7 +30980,7 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31021,7 +31021,7 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -31062,7 +31062,7 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31103,7 +31103,7 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>SIN INGRESO</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -31144,7 +31144,7 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31267,7 +31267,7 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -31513,7 +31513,7 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -31964,7 +31964,7 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -32087,7 +32087,7 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -32210,7 +32210,7 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -32251,7 +32251,7 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -32661,7 +32661,7 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -32948,7 +32948,7 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -33153,7 +33153,7 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -33276,7 +33276,7 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -33522,7 +33522,7 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -34055,7 +34055,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -34465,7 +34465,7 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -34547,7 +34547,7 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -34916,7 +34916,7 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -34998,7 +34998,7 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35121,7 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -35408,7 +35408,7 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -35572,7 +35572,7 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -35654,7 +35654,7 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -35900,7 +35900,7 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -35941,7 +35941,7 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -36105,7 +36105,7 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -36146,7 +36146,7 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -36228,7 +36228,7 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -36310,7 +36310,7 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -36556,7 +36556,7 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -36597,7 +36597,7 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -36679,7 +36679,7 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -36843,7 +36843,7 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -36966,7 +36966,7 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -37048,7 +37048,7 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -37540,7 +37540,7 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -37950,7 +37950,7 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -38237,7 +38237,7 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>No se encuentra dirección IP</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -39221,7 +39221,7 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -40082,7 +40082,7 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -40246,7 +40246,7 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -40447,7 +40447,7 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>ERR_TIMED_OUT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -41349,7 +41349,7 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -41390,7 +41390,7 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -41718,7 +41718,7 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -41759,7 +41759,7 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -41882,7 +41882,7 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -41923,7 +41923,7 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -42497,7 +42497,7 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -42620,7 +42620,7 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -42866,7 +42866,7 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -42948,7 +42948,7 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -42989,7 +42989,7 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -43440,7 +43440,7 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -43522,7 +43522,7 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -43768,7 +43768,7 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -43850,7 +43850,7 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -45695,7 +45695,7 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -45818,7 +45818,7 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -46015,7 +46015,7 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
